--- a/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
@@ -128,7 +128,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -246,17 +246,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +633,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -645,12 +645,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -667,13 +667,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3"/>

--- a/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(C3:C3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${titleName}明细</t>
     <rPh sb="2" eb="3">
       <t>yun'y</t>
@@ -121,14 +117,18 @@
     <t>${header}金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>$[SUMPRODUCT(C3:C3:C3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -249,13 +249,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -264,74 +264,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -351,7 +283,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -386,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,7 +565,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -645,22 +577,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -673,7 +605,7 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -685,8 +617,8 @@
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
     </row>
